--- a/fuzzy_v3/data/excel/policy_info.xlsx
+++ b/fuzzy_v3/data/excel/policy_info.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gameProject\godotProject\fuzzy\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameProject\godotProject\fuzzy_v3\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51336C4E-C39D-4E01-91CE-4B05216F126D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="policy_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>马锦川</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B38EB28A-54DF-470F-9BC5-DC23B7B785EF}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -548,29 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政策1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策3</t>
-  </si>
-  <si>
-    <t>政策4</t>
-  </si>
-  <si>
-    <t>政策5</t>
-  </si>
-  <si>
-    <t>政策6</t>
-  </si>
-  <si>
-    <t>政策7</t>
-  </si>
-  <si>
     <t>政策8</t>
   </si>
   <si>
@@ -769,13 +745,41 @@
   </si>
   <si>
     <t>tree_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策1:单一物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策2：多元物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策3：队伍人员单一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策4：随机分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策5：按价竞拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策6：主动派遣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策7：随机抽取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1108,30 +1112,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.58203125" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>153</v>
@@ -1158,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1198,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1230,13 +1234,13 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1262,13 +1266,13 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1294,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1326,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1358,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1390,13 +1394,13 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1422,13 +1426,13 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1454,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1486,13 +1490,13 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1518,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1550,13 +1554,13 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1582,13 +1586,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1614,13 +1618,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1646,13 +1650,13 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1678,13 +1682,13 @@
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1710,13 +1714,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1742,13 +1746,13 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1774,13 +1778,13 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1806,13 +1810,13 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1838,13 +1842,13 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1870,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1902,13 +1906,13 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1934,13 +1938,13 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1966,13 +1970,13 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1998,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2030,13 +2034,13 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2062,13 +2066,13 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2094,13 +2098,13 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2126,13 +2130,13 @@
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2158,13 +2162,13 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2190,13 +2194,13 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2222,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2254,13 +2258,13 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2286,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2318,24 +2322,24 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuzzy_v3/data/excel/policy_info.xlsx
+++ b/fuzzy_v3/data/excel/policy_info.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="264">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,478 +301,627 @@
     <t>[21]</t>
   </si>
   <si>
+    <t>[2,20]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,21]]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[3,4,22]</t>
+  </si>
+  <si>
+    <t>[2,21]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,22]]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[3,4,23]</t>
+  </si>
+  <si>
+    <t>[2,22]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,23]]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[3,4,24]</t>
+  </si>
+  <si>
+    <t>[2,23]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,24]]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[3,4,25]</t>
+  </si>
+  <si>
+    <t>[2,24]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,25]]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>[3,4,26]</t>
+  </si>
+  <si>
+    <t>[2,25]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,26]]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>[3,4,27]</t>
+  </si>
+  <si>
+    <t>[2,26]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,27]]</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>[3,4,28]</t>
+  </si>
+  <si>
+    <t>[2,27]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,28]]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[3,4,29]</t>
+  </si>
+  <si>
+    <t>[2,28]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,29]]</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[3,4,30]</t>
+  </si>
+  <si>
+    <t>[2,29]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,30]]</t>
+  </si>
+  <si>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>[3,4,31]</t>
+  </si>
+  <si>
+    <t>[2,30]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,31]]</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[3,4,32]</t>
+  </si>
+  <si>
+    <t>[2,31]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,32]]</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>[3,4,33]</t>
+  </si>
+  <si>
+    <t>[2,32]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,33]]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[3,4,34]</t>
+  </si>
+  <si>
+    <t>[2,33]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,34]]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[3,4,35]</t>
+  </si>
+  <si>
+    <t>[2,34]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,35]]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[3,4,36]</t>
+  </si>
+  <si>
+    <t>[2,35]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,36]]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[3,4,37]</t>
+  </si>
+  <si>
+    <t>[2,36]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,37]]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[3,4,38]</t>
+  </si>
+  <si>
+    <t>[2,37]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,38]]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[3,4,39]</t>
+  </si>
+  <si>
+    <t>[2,38]</t>
+  </si>
+  <si>
+    <t>[[1,0.05,39]]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[3,4,40]</t>
+  </si>
+  <si>
+    <t>[2,39]</t>
+  </si>
+  <si>
+    <t>event_bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tendency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策8</t>
+  </si>
+  <si>
+    <t>政策9</t>
+  </si>
+  <si>
+    <t>政策10</t>
+  </si>
+  <si>
+    <t>政策11</t>
+  </si>
+  <si>
+    <t>政策12</t>
+  </si>
+  <si>
+    <t>政策13</t>
+  </si>
+  <si>
+    <t>政策14</t>
+  </si>
+  <si>
+    <t>政策15</t>
+  </si>
+  <si>
+    <t>政策16</t>
+  </si>
+  <si>
+    <t>政策17</t>
+  </si>
+  <si>
+    <t>政策18</t>
+  </si>
+  <si>
+    <t>政策19</t>
+  </si>
+  <si>
+    <t>政策20</t>
+  </si>
+  <si>
+    <t>政策21</t>
+  </si>
+  <si>
+    <t>政策22</t>
+  </si>
+  <si>
+    <t>政策23</t>
+  </si>
+  <si>
+    <t>政策24</t>
+  </si>
+  <si>
+    <t>政策25</t>
+  </si>
+  <si>
+    <t>政策26</t>
+  </si>
+  <si>
+    <t>政策27</t>
+  </si>
+  <si>
+    <t>政策28</t>
+  </si>
+  <si>
+    <t>政策29</t>
+  </si>
+  <si>
+    <t>政策30</t>
+  </si>
+  <si>
+    <t>政策31</t>
+  </si>
+  <si>
+    <t>政策32</t>
+  </si>
+  <si>
+    <t>政策33</t>
+  </si>
+  <si>
+    <t>政策34</t>
+  </si>
+  <si>
+    <t>政策35</t>
+  </si>
+  <si>
+    <t>政策36</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00003.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00004.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00005.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00006.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00007.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00008.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00009.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00010.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00011.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00012.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00013.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00014.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00015.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00016.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00017.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00018.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00019.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00020.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00021.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00022.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00023.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00024.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00025.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00026.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00027.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00028.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00029.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00030.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00031.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00032.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00033.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00034.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00035.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/policy/Policy_00036.png</t>
+  </si>
+  <si>
+    <t>tree_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策1:单一物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策2：多元物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策3：队伍人员单一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策4：随机分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策5：按价竞拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策6：主动派遣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策7：随机抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随遇而安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各司其责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会达尔文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随缘分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工派遣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按职分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待价而沽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推举制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺魁战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做干涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可泄漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条例惩罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[3,4,21]</t>
-  </si>
-  <si>
-    <t>[2,20]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,21]]</t>
-  </si>
-  <si>
-    <t>[22]</t>
-  </si>
-  <si>
-    <t>[3,4,22]</t>
-  </si>
-  <si>
-    <t>[2,21]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,22]]</t>
-  </si>
-  <si>
-    <t>[23]</t>
-  </si>
-  <si>
-    <t>[3,4,23]</t>
-  </si>
-  <si>
-    <t>[2,22]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,23]]</t>
-  </si>
-  <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[3,4,24]</t>
-  </si>
-  <si>
-    <t>[2,23]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,24]]</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[3,4,25]</t>
-  </si>
-  <si>
-    <t>[2,24]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,25]]</t>
-  </si>
-  <si>
-    <t>[26]</t>
-  </si>
-  <si>
-    <t>[3,4,26]</t>
-  </si>
-  <si>
-    <t>[2,25]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,26]]</t>
-  </si>
-  <si>
-    <t>[27]</t>
-  </si>
-  <si>
-    <t>[3,4,27]</t>
-  </si>
-  <si>
-    <t>[2,26]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,27]]</t>
-  </si>
-  <si>
-    <t>[28]</t>
-  </si>
-  <si>
-    <t>[3,4,28]</t>
-  </si>
-  <si>
-    <t>[2,27]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,28]]</t>
-  </si>
-  <si>
-    <t>[29]</t>
-  </si>
-  <si>
-    <t>[3,4,29]</t>
-  </si>
-  <si>
-    <t>[2,28]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,29]]</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[3,4,30]</t>
-  </si>
-  <si>
-    <t>[2,29]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,30]]</t>
-  </si>
-  <si>
-    <t>[31]</t>
-  </si>
-  <si>
-    <t>[3,4,31]</t>
-  </si>
-  <si>
-    <t>[2,30]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,31]]</t>
-  </si>
-  <si>
-    <t>[32]</t>
-  </si>
-  <si>
-    <t>[3,4,32]</t>
-  </si>
-  <si>
-    <t>[2,31]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,32]]</t>
-  </si>
-  <si>
-    <t>[33]</t>
-  </si>
-  <si>
-    <t>[3,4,33]</t>
-  </si>
-  <si>
-    <t>[2,32]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,33]]</t>
-  </si>
-  <si>
-    <t>[34]</t>
-  </si>
-  <si>
-    <t>[3,4,34]</t>
-  </si>
-  <si>
-    <t>[2,33]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,34]]</t>
-  </si>
-  <si>
-    <t>[35]</t>
-  </si>
-  <si>
-    <t>[3,4,35]</t>
-  </si>
-  <si>
-    <t>[2,34]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,35]]</t>
-  </si>
-  <si>
-    <t>[36]</t>
-  </si>
-  <si>
-    <t>[3,4,36]</t>
-  </si>
-  <si>
-    <t>[2,35]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,36]]</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
-    <t>[3,4,37]</t>
-  </si>
-  <si>
-    <t>[2,36]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,37]]</t>
-  </si>
-  <si>
-    <t>[38]</t>
-  </si>
-  <si>
-    <t>[3,4,38]</t>
-  </si>
-  <si>
-    <t>[2,37]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,38]]</t>
-  </si>
-  <si>
-    <t>[39]</t>
-  </si>
-  <si>
-    <t>[3,4,39]</t>
-  </si>
-  <si>
-    <t>[2,38]</t>
-  </si>
-  <si>
-    <t>[[1,0.05,39]]</t>
-  </si>
-  <si>
-    <t>[40]</t>
-  </si>
-  <si>
-    <t>[3,4,40]</t>
-  </si>
-  <si>
-    <t>[2,39]</t>
-  </si>
-  <si>
-    <t>event_bonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gain_event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tendency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策8</t>
-  </si>
-  <si>
-    <t>政策9</t>
-  </si>
-  <si>
-    <t>政策10</t>
-  </si>
-  <si>
-    <t>政策11</t>
-  </si>
-  <si>
-    <t>政策12</t>
-  </si>
-  <si>
-    <t>政策13</t>
-  </si>
-  <si>
-    <t>政策14</t>
-  </si>
-  <si>
-    <t>政策15</t>
-  </si>
-  <si>
-    <t>政策16</t>
-  </si>
-  <si>
-    <t>政策17</t>
-  </si>
-  <si>
-    <t>政策18</t>
-  </si>
-  <si>
-    <t>政策19</t>
-  </si>
-  <si>
-    <t>政策20</t>
-  </si>
-  <si>
-    <t>政策21</t>
-  </si>
-  <si>
-    <t>政策22</t>
-  </si>
-  <si>
-    <t>政策23</t>
-  </si>
-  <si>
-    <t>政策24</t>
-  </si>
-  <si>
-    <t>政策25</t>
-  </si>
-  <si>
-    <t>政策26</t>
-  </si>
-  <si>
-    <t>政策27</t>
-  </si>
-  <si>
-    <t>政策28</t>
-  </si>
-  <si>
-    <t>政策29</t>
-  </si>
-  <si>
-    <t>政策30</t>
-  </si>
-  <si>
-    <t>政策31</t>
-  </si>
-  <si>
-    <t>政策32</t>
-  </si>
-  <si>
-    <t>政策33</t>
-  </si>
-  <si>
-    <t>政策34</t>
-  </si>
-  <si>
-    <t>政策35</t>
-  </si>
-  <si>
-    <t>政策36</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00002.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00003.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00004.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00005.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00006.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00007.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00008.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00009.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00010.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00011.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00012.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00013.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00014.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00015.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00016.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00017.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00018.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00019.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00020.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00021.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00022.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00023.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00024.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00025.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00026.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00027.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00028.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00029.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00030.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00031.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00032.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00033.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00034.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00035.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/policy/Policy_00036.png</t>
-  </si>
-  <si>
-    <t>tree_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策1:单一物种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策2：多元物种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策3：队伍人员单一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策4：随机分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策5：按价竞拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策6：主动派遣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策7：随机抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研修所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做干涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分级管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强势反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随缘入侵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜入入侵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约入侵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动入侵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员培养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无为而治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技蜕变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层层管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争激励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,20 +1274,21 @@
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="58" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1147,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
@@ -1161,8 +1311,11 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>32</v>
       </c>
@@ -1176,7 +1329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1202,13 +1355,16 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1234,13 +1390,16 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="K4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1266,13 +1425,16 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1298,13 +1460,16 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="K6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1330,13 +1495,16 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="K7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1362,13 +1530,16 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="K8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1394,13 +1565,16 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="K9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1426,13 +1600,16 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="K10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1458,13 +1635,16 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="K11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1490,13 +1670,16 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="K12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1522,13 +1705,16 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="K13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1554,13 +1740,16 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1586,13 +1775,16 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1618,13 +1810,16 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1650,13 +1845,16 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1682,13 +1880,16 @@
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1705,22 +1906,25 @@
         <v>72</v>
       </c>
       <c r="F19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
       <c r="H19">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1731,28 +1935,31 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1763,28 +1970,31 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>81</v>
       </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1795,28 +2005,31 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>85</v>
       </c>
-      <c r="G22" t="s">
-        <v>86</v>
-      </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1827,28 +2040,31 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>88</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>89</v>
       </c>
-      <c r="G23" t="s">
-        <v>90</v>
-      </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1859,28 +2075,31 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>93</v>
       </c>
-      <c r="G24" t="s">
-        <v>94</v>
-      </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1891,28 +2110,31 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>96</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>97</v>
       </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
       <c r="H25">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1923,28 +2145,31 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
         <v>99</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>100</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>101</v>
       </c>
-      <c r="G26" t="s">
-        <v>102</v>
-      </c>
       <c r="H26">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1955,28 +2180,31 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
         <v>103</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>104</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>105</v>
       </c>
-      <c r="G27" t="s">
-        <v>106</v>
-      </c>
       <c r="H27">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1987,28 +2215,31 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
         <v>107</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>108</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>109</v>
       </c>
-      <c r="G28" t="s">
-        <v>110</v>
-      </c>
       <c r="H28">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2019,28 +2250,31 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>112</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>113</v>
       </c>
-      <c r="G29" t="s">
-        <v>114</v>
-      </c>
       <c r="H29">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2051,28 +2285,31 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
         <v>115</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>117</v>
       </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
       <c r="H30">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2083,28 +2320,31 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>120</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>121</v>
       </c>
-      <c r="G31" t="s">
-        <v>122</v>
-      </c>
       <c r="H31">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="K31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2115,28 +2355,31 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
         <v>123</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>124</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>125</v>
       </c>
-      <c r="G32" t="s">
-        <v>126</v>
-      </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2147,28 +2390,31 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>128</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>129</v>
       </c>
-      <c r="G33" t="s">
-        <v>130</v>
-      </c>
       <c r="H33">
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2179,28 +2425,31 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
         <v>131</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>132</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>133</v>
       </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2211,28 +2460,31 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>136</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>137</v>
       </c>
-      <c r="G35" t="s">
-        <v>138</v>
-      </c>
       <c r="H35">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="K35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2243,28 +2495,31 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
         <v>139</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>140</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>141</v>
       </c>
-      <c r="G36" t="s">
-        <v>142</v>
-      </c>
       <c r="H36">
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2275,28 +2530,31 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
         <v>143</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>144</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>145</v>
       </c>
-      <c r="G37" t="s">
-        <v>146</v>
-      </c>
       <c r="H37">
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2307,25 +2565,28 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
         <v>147</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>148</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>149</v>
       </c>
-      <c r="G38" t="s">
-        <v>150</v>
-      </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J38" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="201" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
